--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H2">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N2">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q2">
-        <v>0.5279095536463333</v>
+        <v>0.50966406478</v>
       </c>
       <c r="R2">
-        <v>4.751185982816999</v>
+        <v>4.58697658302</v>
       </c>
       <c r="S2">
-        <v>0.0001606651747997852</v>
+        <v>0.000156532996712219</v>
       </c>
       <c r="T2">
-        <v>0.0001606651747997852</v>
+        <v>0.000156532996712219</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H3">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>335.79602</v>
       </c>
       <c r="O3">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P3">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q3">
-        <v>83.62652888879333</v>
+        <v>51.08621557069333</v>
       </c>
       <c r="R3">
-        <v>752.6387599991399</v>
+        <v>459.77594013624</v>
       </c>
       <c r="S3">
-        <v>0.02545108492357095</v>
+        <v>0.01569009660788793</v>
       </c>
       <c r="T3">
-        <v>0.02545108492357095</v>
+        <v>0.01569009660788793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H4">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>70.689615</v>
       </c>
       <c r="O4">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P4">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q4">
-        <v>17.604518156395</v>
+        <v>10.75434101482</v>
       </c>
       <c r="R4">
-        <v>158.440663407555</v>
+        <v>96.78906913338001</v>
       </c>
       <c r="S4">
-        <v>0.005357798447341738</v>
+        <v>0.003302978065447004</v>
       </c>
       <c r="T4">
-        <v>0.005357798447341739</v>
+        <v>0.003302978065447005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N5">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O5">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P5">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q5">
-        <v>13.95253444351522</v>
+        <v>22.05047424767167</v>
       </c>
       <c r="R5">
-        <v>125.572809991637</v>
+        <v>198.454268229045</v>
       </c>
       <c r="S5">
-        <v>0.004246345552536046</v>
+        <v>0.006772356639276849</v>
       </c>
       <c r="T5">
-        <v>0.004246345552536046</v>
+        <v>0.00677235663927685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>335.79602</v>
       </c>
       <c r="O6">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P6">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q6">
         <v>2210.230931895949</v>
@@ -818,10 +818,10 @@
         <v>19892.07838706354</v>
       </c>
       <c r="S6">
-        <v>0.6726666273951438</v>
+        <v>0.6788276731753796</v>
       </c>
       <c r="T6">
-        <v>0.6726666273951438</v>
+        <v>0.6788276731753796</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>70.689615</v>
       </c>
       <c r="O7">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P7">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q7">
         <v>465.2835779197617</v>
@@ -880,10 +880,10 @@
         <v>4187.552201277856</v>
       </c>
       <c r="S7">
-        <v>0.1416054452161499</v>
+        <v>0.1429024288855878</v>
       </c>
       <c r="T7">
-        <v>0.1416054452161499</v>
+        <v>0.1429024288855878</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>10.892997</v>
       </c>
       <c r="I8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N8">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O8">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P8">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q8">
-        <v>2.565640897073</v>
+        <v>4.054718428305001</v>
       </c>
       <c r="R8">
-        <v>23.090768073657</v>
+        <v>36.49246585474501</v>
       </c>
       <c r="S8">
-        <v>0.0007808328914575125</v>
+        <v>0.001245324656508423</v>
       </c>
       <c r="T8">
-        <v>0.0007808328914575125</v>
+        <v>0.001245324656508424</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>10.892997</v>
       </c>
       <c r="I9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>335.79602</v>
       </c>
       <c r="O9">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P9">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q9">
         <v>406.4250042746601</v>
@@ -1004,10 +1004,10 @@
         <v>3657.82503847194</v>
       </c>
       <c r="S9">
-        <v>0.1236922952118755</v>
+        <v>0.1248252098867329</v>
       </c>
       <c r="T9">
-        <v>0.1236922952118755</v>
+        <v>0.1248252098867329</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>10.892997</v>
       </c>
       <c r="I10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>70.689615</v>
       </c>
       <c r="O10">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P10">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q10">
         <v>85.55797379179501</v>
@@ -1066,10 +1066,10 @@
         <v>770.0217641261551</v>
       </c>
       <c r="S10">
-        <v>0.02603890518712468</v>
+        <v>0.02627739908646727</v>
       </c>
       <c r="T10">
-        <v>0.02603890518712469</v>
+        <v>0.02627739908646727</v>
       </c>
     </row>
   </sheetData>
